--- a/medicine/Enfance/Joy_Cowley/Joy_Cowley.xlsx
+++ b/medicine/Enfance/Joy_Cowley/Joy_Cowley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joy Cowley (née Summers le 7 août 1936) est une femme de lettres néo-zélandaise, auteure de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs de ses livres ont été adaptés au cinéma, dont les films The Night Digger et Carry Me Back[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs de ses livres ont été adaptés au cinéma, dont les films The Night Digger et Carry Me Back.
 Elle a écrit des centaines de livres de premiers pas à la lecture.
-En 2020, elle est à nouveau sélectionnée pour représenter son pays, la Nouvelle-Zélande, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur[2], prix international danois. Elle a également été sélectionnée en 2016[3] et 2018[3], et a été finaliste en 2018[2].
+En 2020, elle est à nouveau sélectionnée pour représenter son pays, la Nouvelle-Zélande, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois. Elle a également été sélectionnée en 2016 et 2018, et a été finaliste en 2018.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série Liseron
 Mon petit frère, Nathan, 1989.
@@ -597,7 +613,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Night Digger (1971) d'Alastair Reid, avec Patricia Neal.
 Carry Me Back (1982) de John Reid, avec John Anderson.</t>
